--- a/medicine/Psychotrope/Pelure_d'oignon/Pelure_d'oignon.xlsx
+++ b/medicine/Psychotrope/Pelure_d'oignon/Pelure_d'oignon.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Pelure_d%27oignon</t>
+          <t>Pelure_d'oignon</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Une pelure d'oignon est une fine membrane ou pellicule, située entre les couches externes du bulbe d'un oignon.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Pelure_d%27oignon</t>
+          <t>Pelure_d'oignon</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,12 +523,14 @@
           <t>Couleur</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Le terme renvoie souvent à l'aspect d'un objet :
-la couleur de la peau extérieure de la variété la plus ordinaire de l'oignon, nom de couleur utilisé d'abord en teinture, attesté en 1669[1], pour désigner des orangés clairs légèrement grisâtres[2] ;
+la couleur de la peau extérieure de la variété la plus ordinaire de l'oignon, nom de couleur utilisé d'abord en teinture, attesté en 1669, pour désigner des orangés clairs légèrement grisâtres ;
 une teinture alimentaire, de la même couleur, obtenue par décoction de la pelure exterieure de l'oignon, servant notamment à différencier les œufs durs des œufs crus (on ajoute une pelure d'oignon dans l'eau pour teindre la coquille) ;
-un vin de cette couleur, notamment un vin de table rosé vendu sous ce nom ; pelure d'oignon est un des noms de couleur retenus pour décrire l'apparence des vins rosés de Provence[3] ;
+un vin de cette couleur, notamment un vin de table rosé vendu sous ce nom ; pelure d'oignon est un des noms de couleur retenus pour décrire l'apparence des vins rosés de Provence ;
 un coquillage bivalve du genre Anomia, dont la coque offre un aspect qui rappelle la peau de l'oignon.</t>
         </is>
       </c>
@@ -527,7 +541,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Pelure_d%27oignon</t>
+          <t>Pelure_d'oignon</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -545,7 +559,9 @@
           <t>Sciences et techniques</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">La structure en pelure d'oignon décrit un objet comportant de fines strates, comme l'oignon.
 En dessin animé et aujourd'hui plus généralement en animation la technique d’« onion skinning » (pelage d'oignon, en anglais) est une technique permettant de voir les étapes successives de l'animation par transparence.
@@ -559,7 +575,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Pelure_d%27oignon</t>
+          <t>Pelure_d'oignon</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -577,7 +593,9 @@
           <t>Littérature</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Pelures d'oignon est une œuvre autobiographique, de Günter Grass parue en 2006.
 </t>
